--- a/Course II/ЭИС/Оценка согласованности мнений экспертов (Задание2).xlsx
+++ b/Course II/ЭИС/Оценка согласованности мнений экспертов (Задание2).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Documents/GitHub/FA19/Course II/ЭИС/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{794E4C6A-1964-514B-9A65-7EA4FD00CA5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A34714-869E-E644-AE1E-5A3DE07B8AFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -736,21 +736,6 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -780,6 +765,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1097,7 +1097,7 @@
   <dimension ref="B2:P57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="R43" sqref="R43"/>
+      <selection activeCell="N44" sqref="N44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1526,40 +1526,40 @@
       <c r="B39" t="s">
         <v>38</v>
       </c>
-      <c r="J39" s="22"/>
-      <c r="K39" s="22"/>
-      <c r="L39" s="22"/>
-      <c r="M39" s="22"/>
-      <c r="N39" s="22"/>
-      <c r="O39" s="22"/>
-      <c r="P39" s="22"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
     </row>
     <row r="40" spans="2:16" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="17" t="s">
+      <c r="B40" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="C40" s="14" t="s">
+      <c r="C40" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="16"/>
-      <c r="J40" s="29"/>
-      <c r="K40" s="24" t="s">
+      <c r="D40" s="30"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="31"/>
+      <c r="J40" s="24"/>
+      <c r="K40" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="L40" s="24">
+      <c r="L40" s="19">
         <f>H47</f>
         <v>75</v>
       </c>
-      <c r="M40" s="28"/>
-      <c r="N40" s="28"/>
-      <c r="O40" s="28"/>
-      <c r="P40" s="28"/>
+      <c r="M40" s="23"/>
+      <c r="N40" s="23"/>
+      <c r="O40" s="23"/>
+      <c r="P40" s="23"/>
     </row>
     <row r="41" spans="2:16" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="18"/>
+      <c r="B41" s="28"/>
       <c r="C41" s="13">
         <v>1</v>
       </c>
@@ -1575,25 +1575,25 @@
       <c r="G41" s="13">
         <v>5</v>
       </c>
-      <c r="H41" s="25">
+      <c r="H41" s="20">
         <f>5*(5+1)/2</f>
         <v>15</v>
       </c>
-      <c r="J41" s="29"/>
-      <c r="K41" s="24" t="s">
+      <c r="J41" s="24"/>
+      <c r="K41" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="L41" s="24">
+      <c r="L41" s="19">
         <f>L40/5</f>
         <v>15</v>
       </c>
-      <c r="M41" s="23"/>
-      <c r="N41" s="23"/>
-      <c r="O41" s="23"/>
-      <c r="P41" s="23"/>
+      <c r="M41" s="18"/>
+      <c r="N41" s="18"/>
+      <c r="O41" s="18"/>
+      <c r="P41" s="18"/>
     </row>
     <row r="42" spans="2:16" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="19">
+      <c r="B42" s="14">
         <v>1</v>
       </c>
       <c r="C42" s="9">
@@ -1615,21 +1615,21 @@
         <f>SUM(C42:G42)</f>
         <v>15</v>
       </c>
-      <c r="J42" s="22"/>
-      <c r="K42" s="24" t="s">
+      <c r="J42" s="17"/>
+      <c r="K42" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="L42" s="30">
+      <c r="L42" s="25">
         <f>H48</f>
         <v>184</v>
       </c>
-      <c r="M42" s="22"/>
-      <c r="N42" s="22"/>
-      <c r="O42" s="22"/>
-      <c r="P42" s="22"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
     </row>
     <row r="43" spans="2:16" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="19">
+      <c r="B43" s="14">
         <v>2</v>
       </c>
       <c r="C43" s="9">
@@ -1651,21 +1651,21 @@
         <f>SUM(C43:G43)</f>
         <v>15</v>
       </c>
-      <c r="J43" s="22"/>
-      <c r="K43" s="24" t="s">
+      <c r="J43" s="17"/>
+      <c r="K43" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="L43" s="31">
+      <c r="L43" s="26">
         <f>12*L42/(5^2*(5^3-5))</f>
         <v>0.73599999999999999</v>
       </c>
-      <c r="M43" s="22"/>
-      <c r="N43" s="22"/>
-      <c r="O43" s="22"/>
-      <c r="P43" s="22"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="17"/>
     </row>
     <row r="44" spans="2:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="19">
+      <c r="B44" s="14">
         <v>3</v>
       </c>
       <c r="C44" s="9">
@@ -1687,23 +1687,23 @@
         <f>SUM(C44:G44)</f>
         <v>15</v>
       </c>
-      <c r="J44" s="22"/>
-      <c r="K44" s="24" t="s">
+      <c r="J44" s="17"/>
+      <c r="K44" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="L44" s="20">
+      <c r="L44" s="15">
         <f>12*L42/(5*5*6)</f>
         <v>14.72</v>
       </c>
-      <c r="M44" s="22"/>
-      <c r="N44" s="29" t="s">
+      <c r="M44" s="17"/>
+      <c r="N44" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="O44" s="22"/>
-      <c r="P44" s="22"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="17"/>
     </row>
     <row r="45" spans="2:16" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="19">
+      <c r="B45" s="14">
         <v>4</v>
       </c>
       <c r="C45" s="9">
@@ -1725,20 +1725,20 @@
         <f>SUM(C45:G45)</f>
         <v>15</v>
       </c>
-      <c r="J45" s="22"/>
-      <c r="K45" s="24" t="s">
+      <c r="J45" s="17"/>
+      <c r="K45" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="L45" s="20">
+      <c r="L45" s="15">
         <v>11.07</v>
       </c>
-      <c r="M45" s="22"/>
-      <c r="N45" s="22"/>
-      <c r="O45" s="22"/>
-      <c r="P45" s="22"/>
+      <c r="M45" s="17"/>
+      <c r="N45" s="17"/>
+      <c r="O45" s="17"/>
+      <c r="P45" s="17"/>
     </row>
     <row r="46" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="19">
+      <c r="B46" s="14">
         <v>5</v>
       </c>
       <c r="C46" s="9">
@@ -1760,49 +1760,49 @@
         <f>SUM(C46:G46)</f>
         <v>15</v>
       </c>
-      <c r="J46" s="22"/>
-      <c r="K46" s="23"/>
-      <c r="L46" s="22"/>
-      <c r="M46" s="22"/>
-      <c r="N46" s="22"/>
-      <c r="O46" s="22"/>
-      <c r="P46" s="22"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="18"/>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="17"/>
+      <c r="O46" s="17"/>
+      <c r="P46" s="17"/>
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>13</v>
       </c>
       <c r="C47">
-        <f>SUM(C42:C46)</f>
+        <f t="shared" ref="C47:H47" si="2">SUM(C42:C46)</f>
         <v>24</v>
       </c>
       <c r="D47">
-        <f>SUM(D42:D46)</f>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="E47">
-        <f>SUM(E42:E46)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="F47">
-        <f>SUM(F42:F46)</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="G47">
-        <f>SUM(G42:G46)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="H47" s="8">
-        <f>SUM(H42:H46)</f>
+        <f t="shared" si="2"/>
         <v>75</v>
       </c>
-      <c r="J47" s="22"/>
-      <c r="K47" s="22"/>
-      <c r="L47" s="22"/>
-      <c r="M47" s="22"/>
-      <c r="N47" s="22"/>
-      <c r="O47" s="22"/>
-      <c r="P47" s="22"/>
+      <c r="J47" s="17"/>
+      <c r="K47" s="17"/>
+      <c r="L47" s="17"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="17"/>
+      <c r="O47" s="17"/>
+      <c r="P47" s="17"/>
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
@@ -1813,94 +1813,94 @@
         <v>81</v>
       </c>
       <c r="D48">
-        <f t="shared" ref="D48:H48" si="2">(D47-$L$41)^2</f>
+        <f t="shared" ref="D48:G48" si="3">(D47-$L$41)^2</f>
         <v>4</v>
       </c>
       <c r="E48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>49</v>
       </c>
       <c r="F48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="G48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="H48">
         <f>SUM(C48:G48)</f>
         <v>184</v>
       </c>
-      <c r="J48" s="22"/>
-      <c r="K48" s="22"/>
-      <c r="L48" s="22"/>
-      <c r="M48" s="22"/>
-      <c r="N48" s="22"/>
-      <c r="O48" s="22"/>
-      <c r="P48" s="22"/>
+      <c r="J48" s="17"/>
+      <c r="K48" s="17"/>
+      <c r="L48" s="17"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="17"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="17"/>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B49" s="21"/>
-      <c r="C49" s="21"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="21"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B50" s="21"/>
-      <c r="C50" s="21"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="21"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="16"/>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B51" s="21"/>
-      <c r="C51" s="26"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="27"/>
-      <c r="F51" s="27"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="22"/>
     </row>
     <row r="52" spans="2:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="B52" s="21"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="23"/>
-      <c r="E52" s="22"/>
-      <c r="F52" s="22"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
     </row>
     <row r="53" spans="2:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="B53" s="21"/>
-      <c r="C53" s="22"/>
-      <c r="D53" s="23"/>
-      <c r="E53" s="22"/>
-      <c r="F53" s="22"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17"/>
     </row>
     <row r="54" spans="2:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="B54" s="21"/>
-      <c r="C54" s="22"/>
-      <c r="D54" s="23"/>
-      <c r="E54" s="22"/>
-      <c r="F54" s="22"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="17"/>
     </row>
     <row r="55" spans="2:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="B55" s="21"/>
-      <c r="C55" s="22"/>
-      <c r="D55" s="23"/>
-      <c r="E55" s="22"/>
-      <c r="F55" s="22"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="17"/>
     </row>
     <row r="56" spans="2:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="B56" s="21"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="23"/>
-      <c r="E56" s="22"/>
-      <c r="F56" s="22"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="17"/>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C57" s="21"/>
-      <c r="D57" s="21"/>
-      <c r="E57" s="21"/>
-      <c r="F57" s="21"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="16"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C52:D56">
